--- a/Cronograma de actividades SISAE.xlsx
+++ b/Cronograma de actividades SISAE.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="80">
   <si>
     <t>Actividad</t>
   </si>
@@ -68,9 +68,6 @@
     <t>Debe crear la interfaz del login</t>
   </si>
   <si>
-    <t>Debe crear los procedimientos almacenados</t>
-  </si>
-  <si>
     <t>CRONOGRAMA DE ACTIVIDADES DEL SISTEMA ASISTENCIA DE ESTUDIANTES</t>
   </si>
   <si>
@@ -194,9 +191,6 @@
     <t>CRUD Estudiante</t>
   </si>
   <si>
-    <t>CRUD Administrador</t>
-  </si>
-  <si>
     <t>CRUD Encargado</t>
   </si>
   <si>
@@ -216,13 +210,67 @@
   </si>
   <si>
     <t>7 Días</t>
+  </si>
+  <si>
+    <t>Debe empezara crear los procedimientos almacenados. Todos colaborar</t>
+  </si>
+  <si>
+    <t>CRUD Materia</t>
+  </si>
+  <si>
+    <t>CRUD AsistClase</t>
+  </si>
+  <si>
+    <t>CRUD Seccion</t>
+  </si>
+  <si>
+    <t>CRUD SeccionProf</t>
+  </si>
+  <si>
+    <t>Por iniciar</t>
+  </si>
+  <si>
+    <t>CRUD Bachiller</t>
+  </si>
+  <si>
+    <t>CRUD Grado</t>
+  </si>
+  <si>
+    <t>CRUD Especialidad</t>
+  </si>
+  <si>
+    <t>CRUD AsistCole</t>
+  </si>
+  <si>
+    <t>Crear crud materia e implementarlo</t>
+  </si>
+  <si>
+    <t>Crear crud sección e implementarlo</t>
+  </si>
+  <si>
+    <t>Crear crud asistClase e implementarlo</t>
+  </si>
+  <si>
+    <t>Crear crud seccionprof e implementarlo</t>
+  </si>
+  <si>
+    <t>Crear crud bachiller e implementarlo</t>
+  </si>
+  <si>
+    <t>Crear crud grado e implementarlo</t>
+  </si>
+  <si>
+    <t>Crear crud asistcole e implementarlo</t>
+  </si>
+  <si>
+    <t>Crear crud especialidad e implementarlo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,14 +290,6 @@
       <b/>
       <sz val="14"/>
       <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -296,7 +336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -306,7 +346,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -593,7 +632,7 @@
   <dimension ref="C2:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,22 +641,22 @@
     <col min="6" max="6" width="21.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="61" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="65.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:10" ht="2.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="3:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
+      <c r="C3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
     </row>
     <row r="4" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
@@ -630,19 +669,19 @@
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="3:10" x14ac:dyDescent="0.25">
@@ -650,25 +689,25 @@
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G5" s="3">
         <v>42940</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="3:10" x14ac:dyDescent="0.25">
@@ -682,7 +721,7 @@
         <v>12</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G6" s="3">
         <v>42975</v>
@@ -691,10 +730,10 @@
         <v>42978</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="3:10" x14ac:dyDescent="0.25">
@@ -702,13 +741,13 @@
         <v>7</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G7" s="3">
         <v>42988</v>
@@ -717,10 +756,10 @@
         <v>42989</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.25">
@@ -728,13 +767,13 @@
         <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G8" s="3">
         <v>42990</v>
@@ -743,15 +782,15 @@
         <v>42990</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>4</v>
@@ -760,7 +799,7 @@
         <v>5</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G9" s="3">
         <v>42990</v>
@@ -772,21 +811,21 @@
         <v>13</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="F10" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G10" s="3">
         <v>42990</v>
@@ -795,15 +834,15 @@
         <v>42991</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>10</v>
@@ -812,7 +851,7 @@
         <v>11</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G11" s="3">
         <v>42990</v>
@@ -821,24 +860,24 @@
         <v>43001</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G12" s="3">
         <v>43000</v>
@@ -847,24 +886,24 @@
         <v>43007</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G13" s="3">
         <v>43004</v>
@@ -873,38 +912,50 @@
         <v>43007</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+        <v>55</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="3">
+        <v>43004</v>
+      </c>
+      <c r="H14" s="3">
+        <v>43007</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="15" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G15" s="3">
         <v>43004</v>
@@ -913,125 +964,191 @@
         <v>43007</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C16" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>28</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F16" s="1"/>
       <c r="G16" s="3">
-        <v>43004</v>
-      </c>
-      <c r="H16" s="3">
-        <v>43007</v>
-      </c>
+        <v>43010</v>
+      </c>
+      <c r="H16" s="1"/>
       <c r="I16" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="5"/>
+        <v>42</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="G17" s="3">
+        <v>43010</v>
+      </c>
       <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
+      <c r="I17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="G18" s="3">
+        <v>43010</v>
+      </c>
       <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
+      <c r="I18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="G19" s="3">
+        <v>43010</v>
+      </c>
       <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
+      <c r="I19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="20" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C20" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="G20" s="3">
+        <v>43010</v>
+      </c>
       <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
+      <c r="I20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="21" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C21" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="G21" s="3">
+        <v>43010</v>
+      </c>
       <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
+      <c r="I21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="22" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="G22" s="3">
+        <v>43010</v>
+      </c>
       <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
+      <c r="I22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="23" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="G23" s="3">
+        <v>43010</v>
+      </c>
       <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
+      <c r="I23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="24" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>

--- a/Cronograma de actividades SISAE.xlsx
+++ b/Cronograma de actividades SISAE.xlsx
@@ -224,9 +224,6 @@
     <t>CRUD Seccion</t>
   </si>
   <si>
-    <t>CRUD SeccionProf</t>
-  </si>
-  <si>
     <t>Por iniciar</t>
   </si>
   <si>
@@ -251,9 +248,6 @@
     <t>Crear crud asistClase e implementarlo</t>
   </si>
   <si>
-    <t>Crear crud seccionprof e implementarlo</t>
-  </si>
-  <si>
     <t>Crear crud bachiller e implementarlo</t>
   </si>
   <si>
@@ -264,6 +258,12 @@
   </si>
   <si>
     <t>Crear crud especialidad e implementarlo</t>
+  </si>
+  <si>
+    <t>CRUD Reporte</t>
+  </si>
+  <si>
+    <t>Crear crud reporte  e implementarlo</t>
   </si>
 </sst>
 </file>
@@ -632,7 +632,7 @@
   <dimension ref="C2:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -986,10 +986,10 @@
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.25">
@@ -1008,10 +1008,10 @@
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.25">
@@ -1030,10 +1030,10 @@
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.25">
@@ -1041,7 +1041,7 @@
         <v>44</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>11</v>
@@ -1052,10 +1052,10 @@
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="3:10" x14ac:dyDescent="0.25">
@@ -1063,7 +1063,7 @@
         <v>45</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>16</v>
@@ -1074,10 +1074,10 @@
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="3:10" x14ac:dyDescent="0.25">
@@ -1085,7 +1085,7 @@
         <v>46</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>16</v>
@@ -1096,10 +1096,10 @@
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="3:10" x14ac:dyDescent="0.25">
@@ -1107,7 +1107,7 @@
         <v>47</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>5</v>
@@ -1118,10 +1118,10 @@
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="3:10" x14ac:dyDescent="0.25">
@@ -1129,7 +1129,7 @@
         <v>48</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>5</v>
@@ -1140,10 +1140,10 @@
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="3:10" x14ac:dyDescent="0.25">

--- a/Cronograma de actividades SISAE.xlsx
+++ b/Cronograma de actividades SISAE.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="79">
   <si>
     <t>Actividad</t>
   </si>
@@ -222,9 +222,6 @@
   </si>
   <si>
     <t>CRUD Seccion</t>
-  </si>
-  <si>
-    <t>Por iniciar</t>
   </si>
   <si>
     <t>CRUD Bachiller</t>
@@ -336,7 +333,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -349,6 +346,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -632,7 +630,7 @@
   <dimension ref="C2:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -966,7 +964,7 @@
       <c r="I15" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J15" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -980,16 +978,20 @@
       <c r="E16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="G16" s="3">
         <v>43010</v>
       </c>
-      <c r="H16" s="1"/>
+      <c r="H16" s="3">
+        <v>43021</v>
+      </c>
       <c r="I16" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.25">
@@ -1002,16 +1004,20 @@
       <c r="E17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="1"/>
+      <c r="F17" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="G17" s="3">
         <v>43010</v>
       </c>
-      <c r="H17" s="1"/>
+      <c r="H17" s="3">
+        <v>43021</v>
+      </c>
       <c r="I17" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.25">
@@ -1024,16 +1030,20 @@
       <c r="E18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="1"/>
+      <c r="F18" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="G18" s="3">
         <v>43010</v>
       </c>
-      <c r="H18" s="1"/>
+      <c r="H18" s="3">
+        <v>43021</v>
+      </c>
       <c r="I18" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.25">
@@ -1041,21 +1051,25 @@
         <v>44</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="1"/>
+      <c r="F19" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="G19" s="3">
         <v>43010</v>
       </c>
-      <c r="H19" s="1"/>
+      <c r="H19" s="3">
+        <v>43021</v>
+      </c>
       <c r="I19" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>66</v>
+        <v>78</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="3:10" x14ac:dyDescent="0.25">
@@ -1063,21 +1077,25 @@
         <v>45</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="1"/>
+      <c r="F20" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="G20" s="3">
         <v>43010</v>
       </c>
-      <c r="H20" s="1"/>
+      <c r="H20" s="3">
+        <v>43021</v>
+      </c>
       <c r="I20" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="3:10" x14ac:dyDescent="0.25">
@@ -1085,21 +1103,25 @@
         <v>46</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="1"/>
+      <c r="F21" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="G21" s="3">
         <v>43010</v>
       </c>
-      <c r="H21" s="1"/>
+      <c r="H21" s="3">
+        <v>43021</v>
+      </c>
       <c r="I21" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="3:10" x14ac:dyDescent="0.25">
@@ -1107,21 +1129,25 @@
         <v>47</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F22" s="1"/>
+      <c r="F22" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="G22" s="3">
         <v>43010</v>
       </c>
-      <c r="H22" s="1"/>
+      <c r="H22" s="3">
+        <v>43021</v>
+      </c>
       <c r="I22" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="3:10" x14ac:dyDescent="0.25">
@@ -1129,21 +1155,25 @@
         <v>48</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F23" s="1"/>
+      <c r="F23" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="G23" s="3">
         <v>43010</v>
       </c>
-      <c r="H23" s="1"/>
+      <c r="H23" s="3">
+        <v>43021</v>
+      </c>
       <c r="I23" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="3:10" x14ac:dyDescent="0.25">
